--- a/SAO_JOSE_DO_NORTE.xlsx
+++ b/SAO_JOSE_DO_NORTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA2235D0-FA0B-436F-A212-A56C09CBB65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B515148-51C9-46E1-8056-43D721FE7A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1188,7 +1188,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F0ACFF03-039D-4989-93B8-2C33EA56D3EF}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{EA524F8D-6B1B-42FB-8B06-30D4E4EDA99C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1218,10 +1218,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF64BDBC-D3D2-45EA-B461-DA9296BB9533}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C78AAF-3E19-4E5F-B88D-693CAA4B4471}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1259,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA8050C-A4E2-4C25-92A2-583398861BAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D917382-5AE4-4B8E-8961-57D0BDB417C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1322,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45B6C95-0E34-4D39-B6DB-88CD42832AB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FF5C01-9666-4FE4-A0F1-9BE05966F7BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1341,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF485E71-291E-F0E7-AFCC-E5F9DE627BAA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF3F09B-B668-D35E-7011-7125F8D980A9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1390,7 +1390,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE4F909-89C8-AE4F-54B9-0F1D7A222CC5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4172DB6-B335-F3D8-6872-96BCEBC81813}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1409,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AEEEBC-C840-1997-C308-CE75F98F63BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51062C25-8F56-64B2-74AA-F71CA40A8FC2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1440,7 +1440,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC33513-AAA5-1D25-6769-8DF5C4353996}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8EEAA7-E3B0-9D73-B7CB-4D4823F142FA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ECCD3E-4C21-ABE8-6FD7-84B1B7E24431}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12980F24-CBFB-592F-CDAD-991B9C8BF820}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1514,7 +1514,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE92590-606B-4397-9166-8BDDCF312AF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55ABEE5C-0DDD-47D2-BAD2-CCAC4252347D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1552,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10028E1B-ACFD-45D2-A7AE-57BCBC6D2690}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AD4271-E5A3-4D2C-A091-6F1D42693341}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1595,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA456E1-9A9E-4C55-9068-A7EF803706BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFC2A65-3101-423F-A66B-3A8537C96257}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA51D7F-B44C-4E12-8217-72F1F838C2B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB0F986-0992-477E-923E-901CD85B95C8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_JOSE_DO_NORTE.xlsx
+++ b/SAO_JOSE_DO_NORTE.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B515148-51C9-46E1-8056-43D721FE7A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19E4A6F-6077-4B9F-8F1F-A0A22B6E014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="296">
   <si>
     <t>COMARCA</t>
   </si>
@@ -914,15 +913,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SÃO JOSÉ DO NORTE</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1168,27 +1158,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{EA524F8D-6B1B-42FB-8B06-30D4E4EDA99C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{0FFB5C63-B4D1-413F-B9A3-B271806C90FF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1218,10 +1193,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C78AAF-3E19-4E5F-B88D-693CAA4B4471}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF796D6-E80F-41DF-9CB6-B141C803FC38}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1234,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D917382-5AE4-4B8E-8961-57D0BDB417C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0B1DEC-4A63-4A71-A10A-DCDB2CC075E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1297,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FF5C01-9666-4FE4-A0F1-9BE05966F7BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DE9AB9-4497-4F2E-AA64-204AB0B48D7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1316,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF3F09B-B668-D35E-7011-7125F8D980A9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8809A765-75CD-858E-49EF-7BF93F2A9AC1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1390,7 +1365,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4172DB6-B335-F3D8-6872-96BCEBC81813}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66C0D25-61FF-AEEE-CED0-CE95F08F9A7F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1384,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51062C25-8F56-64B2-74AA-F71CA40A8FC2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FA12A9-A44C-F85B-F3E5-C705F3262B8A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1440,7 +1415,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8EEAA7-E3B0-9D73-B7CB-4D4823F142FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0CFFF24-C73C-389C-642A-B939F2C16E3C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,7 +1446,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12980F24-CBFB-592F-CDAD-991B9C8BF820}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605AAA43-9CFE-317C-0C22-991C0259654E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1514,7 +1489,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55ABEE5C-0DDD-47D2-BAD2-CCAC4252347D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F8530C-94C6-421F-8023-4DDCDC4EF1EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1527,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AD4271-E5A3-4D2C-A091-6F1D42693341}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64E5556-3266-484F-A17F-DB0E4EC5CFA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1570,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFC2A65-3101-423F-A66B-3A8537C96257}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8BE204-2CDF-48BD-A5CC-7E4CAF895D57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB0F986-0992-477E-923E-901CD85B95C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD44DD1F-F3EB-4E92-BD2C-A379DD0AF182}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1920,98 +1895,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="33"/>
-    <col min="6" max="6" width="2" style="33" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="33"/>
+    <col min="1" max="5" width="12.5703125" style="28"/>
+    <col min="6" max="6" width="2" style="28" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="32"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="32"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="32"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="32"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="32"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="32"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="32"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="32"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="32"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="32"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="32"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="32"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="32"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="32"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="32"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="32"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="32"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="32"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="32"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="32"/>
+      <c r="F29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5444,52 +5419,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="E1" s="28">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="31">
-        <v>13</v>
-      </c>
-      <c r="C2" s="29">
-        <v>8.5967464621081863E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_JOSE_DO_NORTE.xlsx
+++ b/SAO_JOSE_DO_NORTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19E4A6F-6077-4B9F-8F1F-A0A22B6E014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69D3B111-B8A2-4818-838E-59070A385D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1163,7 +1163,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{0FFB5C63-B4D1-413F-B9A3-B271806C90FF}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{76F3F6FC-A838-4B49-B917-F67BD647D6DB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1193,10 +1193,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF796D6-E80F-41DF-9CB6-B141C803FC38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D285DF43-9FF1-425C-BC03-A4A538C0C601}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,7 +1234,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0B1DEC-4A63-4A71-A10A-DCDB2CC075E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423134FA-CE24-4A0F-9AFC-DC10153DD7AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1297,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DE9AB9-4497-4F2E-AA64-204AB0B48D7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6581E7-B78F-41E5-ABD5-475E2A3EB672}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1316,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8809A765-75CD-858E-49EF-7BF93F2A9AC1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B96281-0360-EAA7-03DA-98D45C51EED1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1365,7 +1365,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66C0D25-61FF-AEEE-CED0-CE95F08F9A7F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270FC1D1-2041-0AB7-D430-F372A533AD75}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FA12A9-A44C-F85B-F3E5-C705F3262B8A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7673E8B3-2EDA-67B4-6482-46F964CA79CF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1415,7 +1415,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0CFFF24-C73C-389C-642A-B939F2C16E3C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FB00B7-913F-9A7F-C977-9671216CF921}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1446,7 +1446,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605AAA43-9CFE-317C-0C22-991C0259654E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88C3E80-E402-7862-0F98-323A7A8041EA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1489,7 +1489,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F8530C-94C6-421F-8023-4DDCDC4EF1EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751F397F-C19C-4CA2-8499-61B524AABBEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1527,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64E5556-3266-484F-A17F-DB0E4EC5CFA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB169D50-F0B8-4C49-931F-FD2487D4ABB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,50 +1552,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8BE204-2CDF-48BD-A5CC-7E4CAF895D57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1883,7 +1839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD44DD1F-F3EB-4E92-BD2C-A379DD0AF182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335C90A6-E986-4048-88D4-4A4FDFD91DB3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
